--- a/DOc/APISUMMERY.xlsx
+++ b/DOc/APISUMMERY.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web_react4\ecom-02\DOc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_ecom\ecom-02\DOc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9912" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9912" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="backend ER" sheetId="3" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="176">
   <si>
     <t># API Endpoints Summary</t>
   </si>
@@ -569,13 +569,40 @@
   <si>
     <t>:show cart 
 :show product order</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>boostrap</t>
+  </si>
+  <si>
+    <t>GENPDF</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Hashtag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,6 +711,12 @@
       <name val="Leelawadee"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1156,7 +1189,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1221,6 +1254,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1242,14 +1281,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1592,19 +1631,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="33"/>
+      <c r="E1" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="31"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="24"/>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="31"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1711,14 +1750,14 @@
       <c r="G8" s="25"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="E11" s="30" t="s">
+      <c r="B11" s="33"/>
+      <c r="E11" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="24"/>
       <c r="I11" s="26" t="s">
         <v>122</v>
@@ -1843,10 +1882,10 @@
       <c r="G18" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="33"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1871,10 +1910,10 @@
       <c r="B24" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="31"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2022,7 +2061,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -2039,7 +2078,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2054,7 +2093,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -2069,7 +2108,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2084,7 +2123,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2101,7 +2140,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
@@ -2116,7 +2155,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
@@ -2131,7 +2170,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2148,7 +2187,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
@@ -2163,7 +2202,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
@@ -2178,7 +2217,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
@@ -2193,7 +2232,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
@@ -2208,7 +2247,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2225,7 +2264,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
@@ -2240,7 +2279,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="3" t="s">
         <v>49</v>
       </c>
@@ -2255,7 +2294,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="3" t="s">
         <v>52</v>
       </c>
@@ -2270,7 +2309,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="3" t="s">
         <v>52</v>
       </c>
@@ -2285,7 +2324,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
@@ -2300,7 +2339,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3" t="s">
         <v>57</v>
       </c>
@@ -2315,7 +2354,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="3" t="s">
         <v>60</v>
       </c>
@@ -2330,7 +2369,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="3" t="s">
         <v>60</v>
       </c>
@@ -2345,7 +2384,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2362,7 +2401,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="5" t="s">
         <v>66</v>
       </c>
@@ -2400,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G19"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2416,7 +2455,7 @@
     <col min="7" max="7" width="25.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>92</v>
       </c>
@@ -2424,12 +2463,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>70</v>
       </c>
@@ -2448,9 +2487,12 @@
       <c r="G4" s="13" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="H4" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B5" s="37" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -2465,12 +2507,13 @@
       <c r="F5" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="40" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="38"/>
       <c r="C6" s="19"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16" t="s">
@@ -2479,10 +2522,11 @@
       <c r="F6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="38"/>
       <c r="C7" s="19" t="s">
         <v>85</v>
       </c>
@@ -2496,9 +2540,10 @@
         <v>78</v>
       </c>
       <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="38"/>
       <c r="C8" s="18" t="s">
         <v>158</v>
       </c>
@@ -2512,9 +2557,10 @@
         <v>74</v>
       </c>
       <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
       <c r="C9" s="19"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
@@ -2524,9 +2570,10 @@
         <v>78</v>
       </c>
       <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="36"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
       <c r="C10" s="19"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
@@ -2536,9 +2583,10 @@
         <v>78</v>
       </c>
       <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="36"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
       <c r="C11" s="19" t="s">
         <v>75</v>
       </c>
@@ -2552,8 +2600,9 @@
         <v>91</v>
       </c>
       <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="2:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="39"/>
       <c r="C12" s="19" t="s">
         <v>76</v>
@@ -2568,8 +2617,9 @@
         <v>91</v>
       </c>
       <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="2:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>94</v>
       </c>
@@ -2586,8 +2636,11 @@
         <v>91</v>
       </c>
       <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="2:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="s">
         <v>99</v>
       </c>
@@ -2604,8 +2657,11 @@
         <v>91</v>
       </c>
       <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="2:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
         <v>101</v>
       </c>
@@ -2622,8 +2678,11 @@
         <v>103</v>
       </c>
       <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="H15" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>121</v>
       </c>
@@ -2640,8 +2699,11 @@
         <v>103</v>
       </c>
       <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="2:7" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
         <v>148</v>
       </c>
@@ -2660,8 +2722,11 @@
       <c r="G17" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>152</v>
       </c>
@@ -2678,24 +2743,188 @@
         <v>149</v>
       </c>
       <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="2:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="2:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="2:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="2:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="31"/>
+    </row>
+    <row r="27" spans="2:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D27" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E27" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F27" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2703,6 +2932,6 @@
     <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>